--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -3919,13 +3919,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>105819</v>
+        <v>105821</v>
       </c>
       <c r="D69" t="n">
         <v>22855</v>
       </c>
       <c r="E69" t="n">
-        <v>186621981</v>
+        <v>186623631</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -5296,13 +5296,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>10187</v>
+        <v>10188</v>
       </c>
       <c r="D96" t="n">
         <v>1862</v>
       </c>
       <c r="E96" t="n">
-        <v>57988922</v>
+        <v>57991098</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6214,13 +6214,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>88468</v>
+        <v>88469</v>
       </c>
       <c r="D114" t="n">
         <v>14314</v>
       </c>
       <c r="E114" t="n">
-        <v>216749459</v>
+        <v>216751125</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -13660,13 +13660,13 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>22633</v>
+        <v>22634</v>
       </c>
       <c r="D260" t="n">
         <v>4189</v>
       </c>
       <c r="E260" t="n">
-        <v>112140012</v>
+        <v>112152305</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -15088,13 +15088,13 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>14211</v>
+        <v>14212</v>
       </c>
       <c r="D288" t="n">
         <v>2289</v>
       </c>
       <c r="E288" t="n">
-        <v>94252714</v>
+        <v>94261000</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -15649,13 +15649,13 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>9026</v>
+        <v>9027</v>
       </c>
       <c r="D299" t="n">
         <v>1438</v>
       </c>
       <c r="E299" t="n">
-        <v>49891360</v>
+        <v>49908539</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -17995,13 +17995,13 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D345" t="n">
         <v>21</v>
       </c>
       <c r="E345" t="n">
-        <v>5675074</v>
+        <v>5870275</v>
       </c>
       <c r="F345" t="inlineStr">
         <is>
@@ -20443,13 +20443,13 @@
         </is>
       </c>
       <c r="C393" t="n">
-        <v>5430</v>
+        <v>5431</v>
       </c>
       <c r="D393" t="n">
         <v>1019</v>
       </c>
       <c r="E393" t="n">
-        <v>28228173</v>
+        <v>28230358</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>71248</v>
+        <v>71256</v>
       </c>
       <c r="D396" t="n">
         <v>12436</v>
       </c>
       <c r="E396" t="n">
-        <v>110277738</v>
+        <v>110281502</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -20749,13 +20749,13 @@
         </is>
       </c>
       <c r="C399" t="n">
-        <v>18836</v>
+        <v>18840</v>
       </c>
       <c r="D399" t="n">
         <v>3383</v>
       </c>
       <c r="E399" t="n">
-        <v>75024804</v>
+        <v>75078847</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -21004,13 +21004,13 @@
         </is>
       </c>
       <c r="C404" t="n">
-        <v>29539</v>
+        <v>29541</v>
       </c>
       <c r="D404" t="n">
         <v>3814</v>
       </c>
       <c r="E404" t="n">
-        <v>56426825</v>
+        <v>56427433</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
@@ -21208,13 +21208,13 @@
         </is>
       </c>
       <c r="C408" t="n">
-        <v>9326</v>
+        <v>9328</v>
       </c>
       <c r="D408" t="n">
         <v>1304</v>
       </c>
       <c r="E408" t="n">
-        <v>23686296</v>
+        <v>23689436</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -22075,13 +22075,13 @@
         </is>
       </c>
       <c r="C425" t="n">
-        <v>70533</v>
+        <v>70534</v>
       </c>
       <c r="D425" t="n">
         <v>13142</v>
       </c>
       <c r="E425" t="n">
-        <v>343478433</v>
+        <v>343483488</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>40398</v>
+        <v>40399</v>
       </c>
       <c r="D428" t="n">
         <v>6930</v>
       </c>
       <c r="E428" t="n">
-        <v>214795790</v>
+        <v>214995790</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -22840,13 +22840,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>73244</v>
+        <v>73245</v>
       </c>
       <c r="D440" t="n">
         <v>15804</v>
       </c>
       <c r="E440" t="n">
-        <v>130263162</v>
+        <v>130263838</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -24727,13 +24727,13 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>416598</v>
+        <v>416600</v>
       </c>
       <c r="D477" t="n">
         <v>70496</v>
       </c>
       <c r="E477" t="n">
-        <v>724660973</v>
+        <v>724664616</v>
       </c>
       <c r="F477" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>291792</v>
+        <v>291809</v>
       </c>
       <c r="D484" t="n">
         <v>42562</v>
       </c>
       <c r="E484" t="n">
-        <v>1766503326</v>
+        <v>1766757877</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230422</v>
+        <v>230432</v>
       </c>
       <c r="D487" t="n">
         <v>33844</v>
       </c>
       <c r="E487" t="n">
-        <v>1812181711</v>
+        <v>1812295997</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184233</v>
+        <v>184235</v>
       </c>
       <c r="D505" t="n">
         <v>27735</v>
       </c>
       <c r="E505" t="n">
-        <v>332672964</v>
+        <v>332674960</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71160</v>
+        <v>71162</v>
       </c>
       <c r="D511" t="n">
         <v>10922</v>
       </c>
       <c r="E511" t="n">
-        <v>286488150</v>
+        <v>286499687</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -27736,13 +27736,13 @@
         </is>
       </c>
       <c r="C536" t="n">
-        <v>37773</v>
+        <v>37774</v>
       </c>
       <c r="D536" t="n">
         <v>6687</v>
       </c>
       <c r="E536" t="n">
-        <v>172977992</v>
+        <v>173177992</v>
       </c>
       <c r="F536" t="inlineStr">
         <is>
@@ -27940,13 +27940,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>76627</v>
+        <v>76633</v>
       </c>
       <c r="D540" t="n">
         <v>17494</v>
       </c>
       <c r="E540" t="n">
-        <v>114124865</v>
+        <v>114126711</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25048</v>
+        <v>25055</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92102558</v>
+        <v>92126085</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28246,13 +28246,13 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D546" t="n">
         <v>14</v>
       </c>
       <c r="E546" t="n">
-        <v>6189889</v>
+        <v>6360066</v>
       </c>
       <c r="F546" t="inlineStr">
         <is>
@@ -28297,13 +28297,13 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>7433</v>
+        <v>7437</v>
       </c>
       <c r="D547" t="n">
         <v>1667</v>
       </c>
       <c r="E547" t="n">
-        <v>37655642</v>
+        <v>37677476</v>
       </c>
       <c r="F547" t="inlineStr">
         <is>
@@ -28552,13 +28552,13 @@
         </is>
       </c>
       <c r="C552" t="n">
-        <v>39913</v>
+        <v>39917</v>
       </c>
       <c r="D552" t="n">
         <v>7155</v>
       </c>
       <c r="E552" t="n">
-        <v>60354039</v>
+        <v>60356678</v>
       </c>
       <c r="F552" t="inlineStr">
         <is>
@@ -28705,13 +28705,13 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>18423</v>
+        <v>18426</v>
       </c>
       <c r="D555" t="n">
         <v>3296</v>
       </c>
       <c r="E555" t="n">
-        <v>72343317</v>
+        <v>72350486</v>
       </c>
       <c r="F555" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12389</v>
+        <v>12390</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>39983570</v>
+        <v>39995711</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -28960,13 +28960,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>43845</v>
+        <v>43846</v>
       </c>
       <c r="D560" t="n">
         <v>5415</v>
       </c>
       <c r="E560" t="n">
-        <v>101309981</v>
+        <v>101311481</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>
@@ -31612,13 +31612,13 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>9699</v>
+        <v>9700</v>
       </c>
       <c r="D612" t="n">
         <v>1964</v>
       </c>
       <c r="E612" t="n">
-        <v>47994364</v>
+        <v>48001469</v>
       </c>
       <c r="F612" t="inlineStr">
         <is>
@@ -34366,13 +34366,13 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>73197</v>
+        <v>73198</v>
       </c>
       <c r="D666" t="n">
         <v>14361</v>
       </c>
       <c r="E666" t="n">
-        <v>367142267</v>
+        <v>367142864</v>
       </c>
       <c r="F666" t="inlineStr">
         <is>
@@ -36355,13 +36355,13 @@
         </is>
       </c>
       <c r="C705" t="n">
-        <v>13799</v>
+        <v>13800</v>
       </c>
       <c r="D705" t="n">
         <v>2476</v>
       </c>
       <c r="E705" t="n">
-        <v>77906892</v>
+        <v>78001970</v>
       </c>
       <c r="F705" t="inlineStr">
         <is>
@@ -37885,13 +37885,13 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>1166</v>
+        <v>1179</v>
       </c>
       <c r="D735" t="n">
         <v>175</v>
       </c>
       <c r="E735" t="n">
-        <v>4744845</v>
+        <v>4792653</v>
       </c>
       <c r="F735" t="inlineStr">
         <is>
@@ -40843,13 +40843,13 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>63449</v>
+        <v>63451</v>
       </c>
       <c r="D793" t="n">
         <v>11594</v>
       </c>
       <c r="E793" t="n">
-        <v>307268920</v>
+        <v>307274782</v>
       </c>
       <c r="F793" t="inlineStr">
         <is>
@@ -43240,13 +43240,13 @@
         </is>
       </c>
       <c r="C840" t="n">
-        <v>95913</v>
+        <v>95914</v>
       </c>
       <c r="D840" t="n">
         <v>22285</v>
       </c>
       <c r="E840" t="n">
-        <v>162851256</v>
+        <v>162851683</v>
       </c>
       <c r="F840" t="inlineStr">
         <is>
@@ -47065,13 +47065,13 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>96852</v>
+        <v>96854</v>
       </c>
       <c r="D915" t="n">
         <v>17575</v>
       </c>
       <c r="E915" t="n">
-        <v>463299858</v>
+        <v>463304681</v>
       </c>
       <c r="F915" t="inlineStr">
         <is>
@@ -47218,13 +47218,13 @@
         </is>
       </c>
       <c r="C918" t="n">
-        <v>79075</v>
+        <v>79076</v>
       </c>
       <c r="D918" t="n">
         <v>13383</v>
       </c>
       <c r="E918" t="n">
-        <v>391005220</v>
+        <v>391015220</v>
       </c>
       <c r="F918" t="inlineStr">
         <is>
@@ -48136,13 +48136,13 @@
         </is>
       </c>
       <c r="C936" t="n">
-        <v>53208</v>
+        <v>53209</v>
       </c>
       <c r="D936" t="n">
         <v>10126</v>
       </c>
       <c r="E936" t="n">
-        <v>267696103</v>
+        <v>267701946</v>
       </c>
       <c r="F936" t="inlineStr">
         <is>
